--- a/sprints/sprint4/Group 4 Sprint 4 Sprint Backlog.xlsx
+++ b/sprints/sprint4/Group 4 Sprint 4 Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavincoppola/workspace/Capstone2024Group4/sprints/sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0C1228-9414-C14A-9AFC-89ED6CB90359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC52F4-7E61-0E4B-BCEA-D48F10782A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -78,6 +78,21 @@
   <si>
     <t>4 hours</t>
   </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Address Noted Concerns</t>
+  </si>
+  <si>
+    <t>Fix web page reponsive issues</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Add cancel to editing notes</t>
+  </si>
 </sst>
 </file>
 
@@ -95,11 +110,13 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -386,7 +403,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -532,8 +549,12 @@
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -569,8 +590,12 @@
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -606,8 +631,12 @@
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -644,7 +673,9 @@
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -668,11 +699,22 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -696,11 +738,22 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>

--- a/sprints/sprint4/Group 4 Sprint 4 Sprint Backlog.xlsx
+++ b/sprints/sprint4/Group 4 Sprint 4 Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavincoppola/workspace/Capstone2024Group4/sprints/sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Important Documents\proj\Current\Capstone2024Group4\sprints\sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC52F4-7E61-0E4B-BCEA-D48F10782A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234FC28F-9677-4B4E-8281-B780E4A52453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Add module to display note tags per note</t>
   </si>
   <si>
-    <t>Add fucntionality to add/remove a tag</t>
-  </si>
-  <si>
     <t>Find Notes</t>
   </si>
   <si>
@@ -92,6 +89,39 @@
   </si>
   <si>
     <t>Add cancel to editing notes</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Adding Model and DAL Connections to Tags and NoteTags in Desktop App</t>
+  </si>
+  <si>
+    <t>Add Inserting and Viewing Tags in the Desktop Application</t>
+  </si>
+  <si>
+    <t>Added removing Tag functionalities in Desktop Application and Database</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>0.5 hours</t>
+  </si>
+  <si>
+    <t>Added Note Searching by Multiple Partial-Tag filtering in Desktop App</t>
+  </si>
+  <si>
+    <t>7 hours</t>
+  </si>
+  <si>
+    <t>Added code Documentation in Desktop App</t>
+  </si>
+  <si>
+    <t>Allow Note Ordering based on matching applied tags while searching in Desktop App</t>
+  </si>
+  <si>
+    <t>Add functionality to add/remove a tag</t>
   </si>
 </sst>
 </file>
@@ -400,20 +430,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1001"/>
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -454,7 +484,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -465,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -495,7 +525,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -536,9 +566,9 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -577,18 +607,18 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -618,12 +648,12 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -632,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>7</v>
@@ -659,12 +689,12 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -674,7 +704,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -698,22 +728,22 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -737,22 +767,22 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -776,12 +806,25 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -804,12 +847,25 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -832,12 +888,25 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+    <row r="12" spans="1:27" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -860,12 +929,25 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+    <row r="13" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -888,12 +970,23 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+    <row r="14" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -916,12 +1009,25 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="15" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -944,7 +1050,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -972,7 +1078,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1000,7 +1106,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1028,7 +1134,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1056,7 +1162,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1084,7 +1190,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1112,7 +1218,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1140,7 +1246,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1168,7 +1274,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1196,7 +1302,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1224,7 +1330,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1252,7 +1358,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1280,7 +1386,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1308,7 +1414,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1336,7 +1442,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1364,7 +1470,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1392,7 +1498,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1420,7 +1526,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1448,7 +1554,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1476,7 +1582,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1504,7 +1610,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1532,7 +1638,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1560,7 +1666,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1588,7 +1694,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1616,7 +1722,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1644,7 +1750,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1672,7 +1778,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1700,7 +1806,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1728,7 +1834,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1756,7 +1862,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1784,7 +1890,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1812,7 +1918,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1840,7 +1946,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1868,7 +1974,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1896,7 +2002,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1924,7 +2030,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1952,7 +2058,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1980,7 +2086,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2008,7 +2114,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2036,7 +2142,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2064,7 +2170,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2092,7 +2198,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2120,7 +2226,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2148,7 +2254,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2176,7 +2282,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2204,7 +2310,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2232,7 +2338,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2260,7 +2366,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2288,7 +2394,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2316,7 +2422,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2344,7 +2450,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2372,7 +2478,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2400,7 +2506,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2428,7 +2534,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2456,7 +2562,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2484,7 +2590,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2512,7 +2618,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2540,7 +2646,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2568,7 +2674,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2596,7 +2702,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2624,7 +2730,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2652,7 +2758,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2680,7 +2786,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2708,7 +2814,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2736,7 +2842,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2764,7 +2870,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2792,7 +2898,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2820,7 +2926,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2848,7 +2954,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2876,7 +2982,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2904,7 +3010,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2932,7 +3038,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2960,7 +3066,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -2988,7 +3094,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3016,7 +3122,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3044,7 +3150,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3072,7 +3178,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3100,7 +3206,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3128,7 +3234,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3156,7 +3262,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3184,7 +3290,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3212,7 +3318,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3240,7 +3346,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3268,7 +3374,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3296,7 +3402,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3324,7 +3430,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3352,7 +3458,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3380,7 +3486,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3408,7 +3514,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3436,7 +3542,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3464,7 +3570,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3492,7 +3598,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3520,7 +3626,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3548,7 +3654,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3576,7 +3682,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3604,7 +3710,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3632,7 +3738,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3660,7 +3766,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3688,7 +3794,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3716,7 +3822,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -3744,7 +3850,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3772,7 +3878,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3800,7 +3906,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3828,7 +3934,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -3856,7 +3962,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -3884,7 +3990,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -3912,7 +4018,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -3940,7 +4046,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -3968,7 +4074,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3996,7 +4102,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4024,7 +4130,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4052,7 +4158,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4080,7 +4186,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4108,7 +4214,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4136,7 +4242,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4164,7 +4270,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4192,7 +4298,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4220,7 +4326,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4248,7 +4354,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4276,7 +4382,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4304,7 +4410,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4332,7 +4438,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4360,7 +4466,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4388,7 +4494,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4416,7 +4522,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4444,7 +4550,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4472,7 +4578,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4500,7 +4606,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4528,7 +4634,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4556,7 +4662,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4584,7 +4690,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -4612,7 +4718,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4640,7 +4746,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4668,7 +4774,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4696,7 +4802,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4724,7 +4830,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4752,7 +4858,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -4780,7 +4886,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -4808,7 +4914,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -4836,7 +4942,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -4864,7 +4970,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -4892,7 +4998,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4920,7 +5026,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -4948,7 +5054,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -4976,7 +5082,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5004,7 +5110,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5032,7 +5138,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5060,7 +5166,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5088,7 +5194,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5116,7 +5222,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5144,7 +5250,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5172,7 +5278,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -5200,7 +5306,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -5228,7 +5334,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5256,7 +5362,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -5284,7 +5390,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -5312,7 +5418,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -5340,7 +5446,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -5368,7 +5474,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -5396,7 +5502,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -5424,7 +5530,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -5452,7 +5558,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -5480,7 +5586,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -5508,7 +5614,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -5536,7 +5642,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -5564,7 +5670,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -5592,7 +5698,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -5620,7 +5726,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -5648,7 +5754,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -5676,7 +5782,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -5704,7 +5810,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -5732,7 +5838,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -5760,7 +5866,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -5788,7 +5894,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -5816,7 +5922,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -5844,7 +5950,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -5872,7 +5978,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -5900,7 +6006,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -5928,7 +6034,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -5956,7 +6062,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -5984,7 +6090,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6012,7 +6118,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -6040,7 +6146,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -6068,7 +6174,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -6096,7 +6202,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -6124,7 +6230,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -6152,7 +6258,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -6180,7 +6286,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -6208,7 +6314,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -6236,7 +6342,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -6264,7 +6370,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -6292,7 +6398,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -6320,7 +6426,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -6348,7 +6454,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -6376,7 +6482,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -6404,7 +6510,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -6432,7 +6538,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -6460,7 +6566,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -6488,7 +6594,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -6516,7 +6622,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -6544,7 +6650,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -6572,7 +6678,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -6600,7 +6706,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -6628,7 +6734,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -6656,7 +6762,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -6684,7 +6790,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -6712,7 +6818,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -6740,7 +6846,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -6768,7 +6874,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -6796,7 +6902,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -6824,7 +6930,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -6852,7 +6958,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -6880,7 +6986,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -6908,7 +7014,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -6936,7 +7042,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -6964,7 +7070,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -6992,7 +7098,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -7020,7 +7126,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -7048,7 +7154,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -7076,7 +7182,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -7104,7 +7210,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -7132,7 +7238,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -7160,7 +7266,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -7188,7 +7294,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -7216,7 +7322,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -7244,7 +7350,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -7272,7 +7378,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -7300,7 +7406,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -7328,7 +7434,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -7356,7 +7462,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -7384,7 +7490,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -7412,7 +7518,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -7440,7 +7546,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -7468,7 +7574,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -7496,7 +7602,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -7524,7 +7630,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -7552,7 +7658,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -7580,7 +7686,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -7608,7 +7714,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -7636,7 +7742,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -7664,7 +7770,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -7692,7 +7798,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -7720,7 +7826,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -7748,7 +7854,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -7776,7 +7882,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -7804,7 +7910,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -7832,7 +7938,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -7860,7 +7966,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -7888,7 +7994,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -7916,7 +8022,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -7944,7 +8050,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -7972,7 +8078,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -8000,7 +8106,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -8028,7 +8134,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -8056,7 +8162,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -8084,7 +8190,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -8112,7 +8218,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -8140,7 +8246,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -8168,7 +8274,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -8196,7 +8302,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -8224,7 +8330,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -8252,7 +8358,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -8280,7 +8386,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -8308,7 +8414,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -8336,7 +8442,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -8364,7 +8470,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -8392,7 +8498,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -8420,7 +8526,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -8448,7 +8554,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -8476,7 +8582,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -8504,7 +8610,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -8532,7 +8638,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -8560,7 +8666,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -8588,7 +8694,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -8616,7 +8722,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -8644,7 +8750,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -8672,7 +8778,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -8700,7 +8806,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -8728,7 +8834,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -8756,7 +8862,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -8784,7 +8890,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -8812,7 +8918,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -8840,7 +8946,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -8868,7 +8974,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -8896,7 +9002,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -8924,7 +9030,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -8952,7 +9058,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -8980,7 +9086,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -9008,7 +9114,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -9036,7 +9142,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -9064,7 +9170,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -9092,7 +9198,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -9120,7 +9226,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -9148,7 +9254,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -9176,7 +9282,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -9204,7 +9310,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -9232,7 +9338,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -9260,7 +9366,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -9288,7 +9394,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -9316,7 +9422,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -9344,7 +9450,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -9372,7 +9478,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -9400,7 +9506,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -9428,7 +9534,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -9456,7 +9562,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -9484,7 +9590,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -9512,7 +9618,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -9540,7 +9646,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -9568,7 +9674,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -9596,7 +9702,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -9624,7 +9730,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -9652,7 +9758,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -9680,7 +9786,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -9708,7 +9814,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -9736,7 +9842,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -9764,7 +9870,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -9792,7 +9898,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -9820,7 +9926,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -9848,7 +9954,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -9876,7 +9982,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -9904,7 +10010,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -9932,7 +10038,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -9960,7 +10066,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -9988,7 +10094,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -10016,7 +10122,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -10044,7 +10150,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -10072,7 +10178,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -10100,7 +10206,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -10128,7 +10234,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -10156,7 +10262,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -10184,7 +10290,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -10212,7 +10318,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -10240,7 +10346,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -10268,7 +10374,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -10296,7 +10402,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -10324,7 +10430,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -10352,7 +10458,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -10380,7 +10486,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -10408,7 +10514,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -10436,7 +10542,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -10464,7 +10570,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -10492,7 +10598,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -10520,7 +10626,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -10548,7 +10654,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -10576,7 +10682,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -10604,7 +10710,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -10632,7 +10738,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -10660,7 +10766,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -10688,7 +10794,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -10716,7 +10822,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -10744,7 +10850,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -10772,7 +10878,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -10800,7 +10906,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -10828,7 +10934,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -10856,7 +10962,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -10884,7 +10990,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -10912,7 +11018,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -10940,7 +11046,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -10968,7 +11074,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -10996,7 +11102,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -11024,7 +11130,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -11052,7 +11158,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -11080,7 +11186,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -11108,7 +11214,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -11136,7 +11242,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -11164,7 +11270,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -11192,7 +11298,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -11220,7 +11326,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -11248,7 +11354,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -11276,7 +11382,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -11304,7 +11410,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -11332,7 +11438,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -11360,7 +11466,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -11388,7 +11494,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -11416,7 +11522,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -11444,7 +11550,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -11472,7 +11578,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -11500,7 +11606,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -11528,7 +11634,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -11556,7 +11662,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -11584,7 +11690,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -11612,7 +11718,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -11640,7 +11746,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -11668,7 +11774,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -11696,7 +11802,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -11724,7 +11830,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -11752,7 +11858,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -11780,7 +11886,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -11808,7 +11914,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -11836,7 +11942,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -11864,7 +11970,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -11892,7 +11998,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -11920,7 +12026,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -11948,7 +12054,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -11976,7 +12082,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -12004,7 +12110,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -12032,7 +12138,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -12060,7 +12166,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -12088,7 +12194,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -12116,7 +12222,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -12144,7 +12250,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -12172,7 +12278,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -12200,7 +12306,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -12228,7 +12334,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -12256,7 +12362,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -12284,7 +12390,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -12312,7 +12418,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -12340,7 +12446,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -12368,7 +12474,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -12396,7 +12502,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -12424,7 +12530,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -12452,7 +12558,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -12480,7 +12586,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -12508,7 +12614,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -12536,7 +12642,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -12564,7 +12670,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -12592,7 +12698,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -12620,7 +12726,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -12648,7 +12754,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -12676,7 +12782,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="2"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -12704,7 +12810,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -12732,7 +12838,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -12760,7 +12866,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -12788,7 +12894,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="2"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -12816,7 +12922,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="2"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -12844,7 +12950,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="2"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -12872,7 +12978,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="2"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -12900,7 +13006,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B443" s="2"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -12928,7 +13034,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -12956,7 +13062,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -12984,7 +13090,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="2"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -13012,7 +13118,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B447" s="2"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -13040,7 +13146,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B448" s="2"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -13068,7 +13174,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -13096,7 +13202,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B450" s="2"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -13124,7 +13230,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -13152,7 +13258,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -13180,7 +13286,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="2"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -13208,7 +13314,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B454" s="2"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -13236,7 +13342,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="2"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -13264,7 +13370,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="2"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -13292,7 +13398,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="2"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -13320,7 +13426,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B458" s="2"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -13348,7 +13454,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="2"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -13376,7 +13482,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="2"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -13404,7 +13510,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -13432,7 +13538,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="2"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -13460,7 +13566,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="2"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -13488,7 +13594,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -13516,7 +13622,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="2"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -13544,7 +13650,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="2"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -13572,7 +13678,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="2"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -13600,7 +13706,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="2"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -13628,7 +13734,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="2"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -13656,7 +13762,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B470" s="2"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -13684,7 +13790,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -13712,7 +13818,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="2"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -13740,7 +13846,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B473" s="2"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -13768,7 +13874,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -13796,7 +13902,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -13824,7 +13930,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B476" s="2"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -13852,7 +13958,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="2"/>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -13880,7 +13986,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="2"/>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -13908,7 +14014,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="2"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -13936,7 +14042,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="2"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -13964,7 +14070,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="2"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -13992,7 +14098,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="2"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -14020,7 +14126,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -14048,7 +14154,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -14076,7 +14182,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="2"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -14104,7 +14210,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B486" s="2"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -14132,7 +14238,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B487" s="2"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -14160,7 +14266,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B488" s="2"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -14188,7 +14294,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="2"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -14216,7 +14322,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -14244,7 +14350,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B491" s="2"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -14272,7 +14378,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B492" s="2"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -14300,7 +14406,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B493" s="2"/>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -14328,7 +14434,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -14356,7 +14462,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -14384,7 +14490,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B496" s="2"/>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -14412,7 +14518,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -14440,7 +14546,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -14468,7 +14574,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B499" s="2"/>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -14496,7 +14602,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B500" s="2"/>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -14524,7 +14630,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -14552,7 +14658,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -14580,7 +14686,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B503" s="2"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -14608,7 +14714,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B504" s="2"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -14636,7 +14742,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B505" s="2"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -14664,7 +14770,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -14692,7 +14798,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B507" s="2"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -14720,7 +14826,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B508" s="2"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -14748,7 +14854,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B509" s="2"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -14776,7 +14882,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B510" s="2"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -14804,7 +14910,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -14832,7 +14938,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B512" s="2"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -14860,7 +14966,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B513" s="2"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -14888,7 +14994,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -14916,7 +15022,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B515" s="2"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -14944,7 +15050,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B516" s="2"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -14972,7 +15078,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -15000,7 +15106,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B518" s="2"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -15028,7 +15134,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -15056,7 +15162,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -15084,7 +15190,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B521" s="2"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -15112,7 +15218,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -15140,7 +15246,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -15168,7 +15274,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B524" s="2"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -15196,7 +15302,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B525" s="2"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -15224,7 +15330,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B526" s="2"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -15252,7 +15358,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B527" s="2"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -15280,7 +15386,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -15308,7 +15414,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B529" s="2"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -15336,7 +15442,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B530" s="2"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -15364,7 +15470,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -15392,7 +15498,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -15420,7 +15526,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B533" s="2"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -15448,7 +15554,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B534" s="2"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -15476,7 +15582,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -15504,7 +15610,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -15532,7 +15638,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B537" s="2"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -15560,7 +15666,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B538" s="2"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -15588,7 +15694,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B539" s="2"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -15616,7 +15722,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B540" s="2"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -15644,7 +15750,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B541" s="2"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -15672,7 +15778,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B542" s="2"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -15700,7 +15806,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B543" s="2"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -15728,7 +15834,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B544" s="2"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -15756,7 +15862,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B545" s="2"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -15784,7 +15890,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B546" s="2"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -15812,7 +15918,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B547" s="2"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -15840,7 +15946,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -15868,7 +15974,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -15896,7 +16002,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -15924,7 +16030,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B551" s="2"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -15952,7 +16058,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -15980,7 +16086,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -16008,7 +16114,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B554" s="2"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -16036,7 +16142,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B555" s="2"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -16064,7 +16170,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B556" s="2"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -16092,7 +16198,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B557" s="2"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -16120,7 +16226,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B558" s="2"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -16148,7 +16254,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B559" s="2"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -16176,7 +16282,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B560" s="2"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -16204,7 +16310,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -16232,7 +16338,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -16260,7 +16366,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -16288,7 +16394,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -16316,7 +16422,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B565" s="2"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -16344,7 +16450,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B566" s="2"/>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -16372,7 +16478,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B567" s="2"/>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -16400,7 +16506,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B568" s="2"/>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -16428,7 +16534,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -16456,7 +16562,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -16484,7 +16590,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B571" s="2"/>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -16512,7 +16618,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -16540,7 +16646,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -16568,7 +16674,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -16596,7 +16702,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -16624,7 +16730,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -16652,7 +16758,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -16680,7 +16786,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -16708,7 +16814,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B579" s="2"/>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -16736,7 +16842,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B580" s="2"/>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -16764,7 +16870,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B581" s="2"/>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -16792,7 +16898,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -16820,7 +16926,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B583" s="2"/>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -16848,7 +16954,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B584" s="2"/>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -16876,7 +16982,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B585" s="2"/>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -16904,7 +17010,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B586" s="2"/>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -16932,7 +17038,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -16960,7 +17066,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -16988,7 +17094,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B589" s="2"/>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -17016,7 +17122,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B590" s="2"/>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -17044,7 +17150,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B591" s="2"/>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -17072,7 +17178,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B592" s="2"/>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -17100,7 +17206,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -17128,7 +17234,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -17156,7 +17262,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B595" s="2"/>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -17184,7 +17290,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -17212,7 +17318,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -17240,7 +17346,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B598" s="2"/>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -17268,7 +17374,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -17296,7 +17402,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B600" s="2"/>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -17324,7 +17430,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -17352,7 +17458,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B602" s="2"/>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -17380,7 +17486,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -17408,7 +17514,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B604" s="2"/>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -17436,7 +17542,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B605" s="2"/>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -17464,7 +17570,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B606" s="2"/>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -17492,7 +17598,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B607" s="2"/>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -17520,7 +17626,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B608" s="2"/>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -17548,7 +17654,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -17576,7 +17682,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -17604,7 +17710,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -17632,7 +17738,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B612" s="2"/>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -17660,7 +17766,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B613" s="2"/>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -17688,7 +17794,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -17716,7 +17822,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -17744,7 +17850,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -17772,7 +17878,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B617" s="2"/>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -17800,7 +17906,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -17828,7 +17934,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -17856,7 +17962,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -17884,7 +17990,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -17912,7 +18018,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B622" s="2"/>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -17940,7 +18046,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -17968,7 +18074,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B624" s="2"/>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -17996,7 +18102,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B625" s="2"/>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -18024,7 +18130,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -18052,7 +18158,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -18080,7 +18186,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B628" s="2"/>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -18108,7 +18214,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B629" s="2"/>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -18136,7 +18242,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B630" s="2"/>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -18164,7 +18270,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B631" s="2"/>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -18192,7 +18298,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B632" s="2"/>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -18220,7 +18326,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -18248,7 +18354,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B634" s="2"/>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -18276,7 +18382,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B635" s="2"/>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -18304,7 +18410,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -18332,7 +18438,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -18360,7 +18466,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -18388,7 +18494,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B639" s="2"/>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -18416,7 +18522,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B640" s="2"/>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -18444,7 +18550,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B641" s="2"/>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -18472,7 +18578,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -18500,7 +18606,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -18528,7 +18634,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B644" s="2"/>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -18556,7 +18662,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -18584,7 +18690,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -18612,7 +18718,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B647" s="2"/>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -18640,7 +18746,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B648" s="2"/>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -18668,7 +18774,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -18696,7 +18802,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -18724,7 +18830,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B651" s="2"/>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -18752,7 +18858,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -18780,7 +18886,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -18808,7 +18914,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -18836,7 +18942,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B655" s="2"/>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -18864,7 +18970,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B656" s="2"/>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -18892,7 +18998,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B657" s="2"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -18920,7 +19026,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B658" s="2"/>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -18948,7 +19054,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -18976,7 +19082,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -19004,7 +19110,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -19032,7 +19138,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -19060,7 +19166,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -19088,7 +19194,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -19116,7 +19222,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -19144,7 +19250,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -19172,7 +19278,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -19200,7 +19306,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -19228,7 +19334,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -19256,7 +19362,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -19284,7 +19390,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -19312,7 +19418,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -19340,7 +19446,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -19368,7 +19474,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -19396,7 +19502,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -19424,7 +19530,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -19452,7 +19558,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -19480,7 +19586,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -19508,7 +19614,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -19536,7 +19642,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -19564,7 +19670,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -19592,7 +19698,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -19620,7 +19726,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -19648,7 +19754,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -19676,7 +19782,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -19704,7 +19810,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -19732,7 +19838,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -19760,7 +19866,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -19788,7 +19894,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -19816,7 +19922,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -19844,7 +19950,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -19872,7 +19978,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -19900,7 +20006,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -19928,7 +20034,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -19956,7 +20062,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -19984,7 +20090,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -20012,7 +20118,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -20040,7 +20146,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -20068,7 +20174,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -20096,7 +20202,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -20124,7 +20230,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -20152,7 +20258,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -20180,7 +20286,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -20208,7 +20314,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -20236,7 +20342,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B705" s="2"/>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -20264,7 +20370,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B706" s="2"/>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -20292,7 +20398,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B707" s="2"/>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -20320,7 +20426,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B708" s="2"/>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -20348,7 +20454,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B709" s="2"/>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -20376,7 +20482,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B710" s="2"/>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -20404,7 +20510,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B711" s="2"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -20432,7 +20538,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B712" s="2"/>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -20460,7 +20566,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B713" s="2"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -20488,7 +20594,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B714" s="2"/>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -20516,7 +20622,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B715" s="2"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -20544,7 +20650,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B716" s="2"/>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -20572,7 +20678,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B717" s="2"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -20600,7 +20706,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B718" s="2"/>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -20628,7 +20734,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B719" s="2"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -20656,7 +20762,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B720" s="2"/>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -20684,7 +20790,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B721" s="2"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -20712,7 +20818,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B722" s="2"/>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -20740,7 +20846,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B723" s="2"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -20768,7 +20874,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B724" s="2"/>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -20796,7 +20902,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B725" s="2"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -20824,7 +20930,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B726" s="2"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -20852,7 +20958,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B727" s="2"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -20880,7 +20986,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B728" s="2"/>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -20908,7 +21014,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B729" s="2"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -20936,7 +21042,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B730" s="2"/>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -20964,7 +21070,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B731" s="2"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -20992,7 +21098,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B732" s="2"/>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -21020,7 +21126,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B733" s="2"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -21048,7 +21154,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B734" s="2"/>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -21076,7 +21182,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B735" s="2"/>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -21104,7 +21210,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B736" s="2"/>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -21132,7 +21238,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B737" s="2"/>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -21160,7 +21266,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B738" s="2"/>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -21188,7 +21294,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B739" s="2"/>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -21216,7 +21322,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B740" s="2"/>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -21244,7 +21350,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B741" s="2"/>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -21272,7 +21378,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B742" s="2"/>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -21300,7 +21406,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B743" s="2"/>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -21328,7 +21434,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B744" s="2"/>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -21356,7 +21462,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B745" s="2"/>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -21384,7 +21490,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B746" s="2"/>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -21412,7 +21518,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B747" s="2"/>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -21440,7 +21546,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B748" s="2"/>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -21468,7 +21574,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B749" s="2"/>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -21496,7 +21602,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B750" s="2"/>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -21524,7 +21630,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B751" s="2"/>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -21552,7 +21658,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B752" s="2"/>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -21580,7 +21686,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B753" s="2"/>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -21608,7 +21714,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B754" s="2"/>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -21636,7 +21742,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B755" s="2"/>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -21664,7 +21770,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B756" s="2"/>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -21692,7 +21798,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B757" s="2"/>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -21720,7 +21826,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B758" s="2"/>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -21748,7 +21854,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B759" s="2"/>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -21776,7 +21882,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B760" s="2"/>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -21804,7 +21910,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B761" s="2"/>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -21832,7 +21938,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B762" s="2"/>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -21860,7 +21966,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B763" s="2"/>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -21888,7 +21994,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B764" s="2"/>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -21916,7 +22022,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B765" s="2"/>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -21944,7 +22050,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B766" s="2"/>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -21972,7 +22078,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B767" s="2"/>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -22000,7 +22106,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B768" s="2"/>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -22028,7 +22134,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B769" s="2"/>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -22056,7 +22162,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B770" s="2"/>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -22084,7 +22190,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B771" s="2"/>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -22112,7 +22218,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B772" s="2"/>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -22140,7 +22246,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B773" s="2"/>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -22168,7 +22274,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B774" s="2"/>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -22196,7 +22302,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B775" s="2"/>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -22224,7 +22330,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B776" s="2"/>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -22252,7 +22358,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B777" s="2"/>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -22280,7 +22386,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B778" s="2"/>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -22308,7 +22414,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B779" s="2"/>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -22336,7 +22442,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B780" s="2"/>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -22364,7 +22470,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B781" s="2"/>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -22392,7 +22498,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B782" s="2"/>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -22420,7 +22526,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B783" s="2"/>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -22448,7 +22554,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B784" s="2"/>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -22476,7 +22582,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B785" s="2"/>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -22504,7 +22610,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B786" s="2"/>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -22532,7 +22638,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B787" s="2"/>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -22560,7 +22666,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B788" s="2"/>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -22588,7 +22694,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B789" s="2"/>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -22616,7 +22722,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B790" s="2"/>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -22644,7 +22750,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B791" s="2"/>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -22672,7 +22778,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B792" s="2"/>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -22700,7 +22806,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B793" s="2"/>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -22728,7 +22834,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B794" s="2"/>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -22756,7 +22862,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B795" s="2"/>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -22784,7 +22890,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B796" s="2"/>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -22812,7 +22918,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B797" s="2"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -22840,7 +22946,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B798" s="2"/>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -22868,7 +22974,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B799" s="2"/>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -22896,7 +23002,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B800" s="2"/>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -22924,7 +23030,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B801" s="2"/>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -22952,7 +23058,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B802" s="2"/>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -22980,7 +23086,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B803" s="2"/>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -23008,7 +23114,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B804" s="2"/>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -23036,7 +23142,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B805" s="2"/>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -23064,7 +23170,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B806" s="2"/>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -23092,7 +23198,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B807" s="2"/>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -23120,7 +23226,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B808" s="2"/>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -23148,7 +23254,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B809" s="2"/>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -23176,7 +23282,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B810" s="2"/>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -23204,7 +23310,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B811" s="2"/>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -23232,7 +23338,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B812" s="2"/>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -23260,7 +23366,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B813" s="2"/>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -23288,7 +23394,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B814" s="2"/>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -23316,7 +23422,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B815" s="2"/>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -23344,7 +23450,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B816" s="2"/>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -23372,7 +23478,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B817" s="2"/>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -23400,7 +23506,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B818" s="2"/>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -23428,7 +23534,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B819" s="2"/>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -23456,7 +23562,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B820" s="2"/>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -23484,7 +23590,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B821" s="2"/>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -23512,7 +23618,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B822" s="2"/>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -23540,7 +23646,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B823" s="2"/>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -23568,7 +23674,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B824" s="2"/>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -23596,7 +23702,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B825" s="2"/>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -23624,7 +23730,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B826" s="2"/>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -23652,7 +23758,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B827" s="2"/>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -23680,7 +23786,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B828" s="2"/>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -23708,7 +23814,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B829" s="2"/>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -23736,7 +23842,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B830" s="2"/>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -23764,7 +23870,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B831" s="2"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -23792,7 +23898,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B832" s="2"/>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -23820,7 +23926,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B833" s="2"/>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -23848,7 +23954,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B834" s="2"/>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -23876,7 +23982,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B835" s="2"/>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -23904,7 +24010,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B836" s="2"/>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -23932,7 +24038,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B837" s="2"/>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -23960,7 +24066,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B838" s="2"/>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -23988,7 +24094,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B839" s="2"/>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -24016,7 +24122,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B840" s="2"/>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -24044,7 +24150,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B841" s="2"/>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -24072,7 +24178,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B842" s="2"/>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -24100,7 +24206,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B843" s="2"/>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -24128,7 +24234,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B844" s="2"/>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -24156,7 +24262,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B845" s="2"/>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -24184,7 +24290,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B846" s="2"/>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -24212,7 +24318,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B847" s="2"/>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -24240,7 +24346,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B848" s="2"/>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -24268,7 +24374,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B849" s="2"/>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -24296,7 +24402,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B850" s="2"/>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -24324,7 +24430,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B851" s="2"/>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -24352,7 +24458,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B852" s="2"/>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -24380,7 +24486,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B853" s="2"/>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -24408,7 +24514,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B854" s="2"/>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -24436,7 +24542,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B855" s="2"/>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -24464,7 +24570,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B856" s="2"/>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -24492,7 +24598,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B857" s="2"/>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -24520,7 +24626,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B858" s="2"/>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -24548,7 +24654,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B859" s="2"/>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -24576,7 +24682,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B860" s="2"/>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -24604,7 +24710,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B861" s="2"/>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -24632,7 +24738,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B862" s="2"/>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -24660,7 +24766,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B863" s="2"/>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -24688,7 +24794,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B864" s="2"/>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -24716,7 +24822,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B865" s="2"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -24744,7 +24850,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B866" s="2"/>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -24772,7 +24878,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B867" s="2"/>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -24800,7 +24906,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B868" s="2"/>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -24828,7 +24934,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B869" s="2"/>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -24856,7 +24962,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B870" s="2"/>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -24884,7 +24990,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B871" s="2"/>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -24912,7 +25018,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B872" s="2"/>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -24940,7 +25046,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B873" s="2"/>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -24968,7 +25074,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B874" s="2"/>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -24996,7 +25102,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B875" s="2"/>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -25024,7 +25130,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B876" s="2"/>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -25052,7 +25158,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B877" s="2"/>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -25080,7 +25186,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B878" s="2"/>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -25108,7 +25214,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B879" s="2"/>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -25136,7 +25242,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B880" s="2"/>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -25164,7 +25270,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B881" s="2"/>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -25192,7 +25298,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B882" s="2"/>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -25220,7 +25326,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B883" s="2"/>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -25248,7 +25354,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B884" s="2"/>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -25276,7 +25382,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B885" s="2"/>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -25304,7 +25410,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B886" s="2"/>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -25332,7 +25438,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B887" s="2"/>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -25360,7 +25466,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B888" s="2"/>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -25388,7 +25494,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B889" s="2"/>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -25416,7 +25522,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B890" s="2"/>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -25444,7 +25550,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B891" s="2"/>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -25472,7 +25578,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B892" s="2"/>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -25500,7 +25606,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B893" s="2"/>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -25528,7 +25634,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B894" s="2"/>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -25556,7 +25662,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B895" s="2"/>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -25584,7 +25690,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B896" s="2"/>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -25612,7 +25718,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B897" s="2"/>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -25640,7 +25746,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B898" s="2"/>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -25668,7 +25774,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B899" s="2"/>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -25696,7 +25802,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B900" s="2"/>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -25724,7 +25830,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B901" s="2"/>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -25752,7 +25858,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B902" s="2"/>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -25780,7 +25886,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B903" s="2"/>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -25808,7 +25914,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B904" s="2"/>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -25836,7 +25942,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B905" s="2"/>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -25864,7 +25970,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B906" s="2"/>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -25892,7 +25998,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B907" s="2"/>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -25920,7 +26026,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B908" s="2"/>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -25948,7 +26054,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B909" s="2"/>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -25976,7 +26082,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B910" s="2"/>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -26004,7 +26110,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B911" s="2"/>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -26032,7 +26138,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B912" s="2"/>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -26060,7 +26166,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B913" s="2"/>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -26088,7 +26194,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="2"/>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -26116,7 +26222,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="2"/>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -26144,7 +26250,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="2"/>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -26172,7 +26278,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="2"/>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -26200,7 +26306,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="2"/>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -26228,7 +26334,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="2"/>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -26256,7 +26362,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="2"/>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -26284,7 +26390,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="2"/>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -26312,7 +26418,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="2"/>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -26340,7 +26446,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="2"/>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -26368,7 +26474,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="2"/>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -26396,7 +26502,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="2"/>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -26424,7 +26530,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="2"/>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -26452,7 +26558,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="2"/>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -26480,7 +26586,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="2"/>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -26508,7 +26614,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B929" s="2"/>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -26536,7 +26642,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B930" s="2"/>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -26564,7 +26670,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B931" s="2"/>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -26592,7 +26698,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B932" s="2"/>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -26620,7 +26726,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B933" s="2"/>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -26648,7 +26754,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B934" s="2"/>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -26676,7 +26782,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B935" s="2"/>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -26704,7 +26810,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B936" s="2"/>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -26732,7 +26838,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B937" s="2"/>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -26760,7 +26866,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B938" s="2"/>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -26788,7 +26894,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B939" s="2"/>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -26816,7 +26922,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B940" s="2"/>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -26844,7 +26950,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B941" s="2"/>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -26872,7 +26978,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B942" s="2"/>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -26900,7 +27006,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B943" s="2"/>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -26928,7 +27034,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B944" s="2"/>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -26956,7 +27062,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B945" s="2"/>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -26984,7 +27090,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B946" s="2"/>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -27012,7 +27118,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B947" s="2"/>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -27040,7 +27146,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B948" s="2"/>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -27068,7 +27174,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B949" s="2"/>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -27096,7 +27202,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B950" s="2"/>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -27124,7 +27230,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B951" s="2"/>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -27152,7 +27258,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B952" s="2"/>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -27180,7 +27286,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B953" s="2"/>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -27208,7 +27314,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B954" s="2"/>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -27236,7 +27342,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B955" s="2"/>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -27264,7 +27370,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B956" s="2"/>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -27292,7 +27398,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B957" s="2"/>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -27320,7 +27426,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B958" s="2"/>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>
@@ -27348,7 +27454,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B959" s="2"/>
       <c r="C959" s="3"/>
       <c r="D959" s="3"/>
@@ -27376,7 +27482,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B960" s="2"/>
       <c r="C960" s="3"/>
       <c r="D960" s="3"/>
@@ -27404,7 +27510,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B961" s="2"/>
       <c r="C961" s="3"/>
       <c r="D961" s="3"/>
@@ -27432,7 +27538,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B962" s="2"/>
       <c r="C962" s="3"/>
       <c r="D962" s="3"/>
@@ -27460,7 +27566,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B963" s="2"/>
       <c r="C963" s="3"/>
       <c r="D963" s="3"/>
@@ -27488,7 +27594,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B964" s="2"/>
       <c r="C964" s="3"/>
       <c r="D964" s="3"/>
@@ -27516,7 +27622,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B965" s="2"/>
       <c r="C965" s="3"/>
       <c r="D965" s="3"/>
@@ -27544,7 +27650,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B966" s="2"/>
       <c r="C966" s="3"/>
       <c r="D966" s="3"/>
@@ -27572,7 +27678,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B967" s="2"/>
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
@@ -27600,7 +27706,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B968" s="2"/>
       <c r="C968" s="3"/>
       <c r="D968" s="3"/>
@@ -27628,7 +27734,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B969" s="2"/>
       <c r="C969" s="3"/>
       <c r="D969" s="3"/>
@@ -27656,7 +27762,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B970" s="2"/>
       <c r="C970" s="3"/>
       <c r="D970" s="3"/>
@@ -27684,7 +27790,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B971" s="2"/>
       <c r="C971" s="3"/>
       <c r="D971" s="3"/>
@@ -27712,7 +27818,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B972" s="2"/>
       <c r="C972" s="3"/>
       <c r="D972" s="3"/>
@@ -27740,7 +27846,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B973" s="2"/>
       <c r="C973" s="3"/>
       <c r="D973" s="3"/>
@@ -27768,7 +27874,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B974" s="2"/>
       <c r="C974" s="3"/>
       <c r="D974" s="3"/>
@@ -27796,7 +27902,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B975" s="2"/>
       <c r="C975" s="3"/>
       <c r="D975" s="3"/>
@@ -27824,7 +27930,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B976" s="2"/>
       <c r="C976" s="3"/>
       <c r="D976" s="3"/>
@@ -27852,7 +27958,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B977" s="2"/>
       <c r="C977" s="3"/>
       <c r="D977" s="3"/>
@@ -27880,7 +27986,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B978" s="2"/>
       <c r="C978" s="3"/>
       <c r="D978" s="3"/>
@@ -27908,7 +28014,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B979" s="2"/>
       <c r="C979" s="3"/>
       <c r="D979" s="3"/>
@@ -27936,7 +28042,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B980" s="2"/>
       <c r="C980" s="3"/>
       <c r="D980" s="3"/>
@@ -27964,7 +28070,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B981" s="2"/>
       <c r="C981" s="3"/>
       <c r="D981" s="3"/>
@@ -27992,7 +28098,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B982" s="2"/>
       <c r="C982" s="3"/>
       <c r="D982" s="3"/>
@@ -28020,7 +28126,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B983" s="2"/>
       <c r="C983" s="3"/>
       <c r="D983" s="3"/>
@@ -28048,7 +28154,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B984" s="2"/>
       <c r="C984" s="3"/>
       <c r="D984" s="3"/>
@@ -28076,7 +28182,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="985" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B985" s="2"/>
       <c r="C985" s="3"/>
       <c r="D985" s="3"/>
@@ -28104,7 +28210,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
     </row>
-    <row r="986" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="986" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B986" s="2"/>
       <c r="C986" s="3"/>
       <c r="D986" s="3"/>
@@ -28132,7 +28238,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
     </row>
-    <row r="987" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="987" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B987" s="2"/>
       <c r="C987" s="3"/>
       <c r="D987" s="3"/>
@@ -28160,7 +28266,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
     </row>
-    <row r="988" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="988" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B988" s="2"/>
       <c r="C988" s="3"/>
       <c r="D988" s="3"/>
@@ -28188,7 +28294,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
     </row>
-    <row r="989" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="989" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B989" s="2"/>
       <c r="C989" s="3"/>
       <c r="D989" s="3"/>
@@ -28216,7 +28322,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
     </row>
-    <row r="990" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="990" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B990" s="2"/>
       <c r="C990" s="3"/>
       <c r="D990" s="3"/>
@@ -28244,7 +28350,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
     </row>
-    <row r="991" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="991" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B991" s="2"/>
       <c r="C991" s="3"/>
       <c r="D991" s="3"/>
@@ -28272,7 +28378,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
     </row>
-    <row r="992" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="992" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B992" s="2"/>
       <c r="C992" s="3"/>
       <c r="D992" s="3"/>
@@ -28300,7 +28406,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
     </row>
-    <row r="993" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="993" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B993" s="2"/>
       <c r="C993" s="3"/>
       <c r="D993" s="3"/>
@@ -28328,7 +28434,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
     </row>
-    <row r="994" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="994" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B994" s="2"/>
       <c r="C994" s="3"/>
       <c r="D994" s="3"/>
@@ -28356,7 +28462,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="995" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B995" s="2"/>
       <c r="C995" s="3"/>
       <c r="D995" s="3"/>
@@ -28384,7 +28490,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
     </row>
-    <row r="996" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="996" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B996" s="2"/>
       <c r="C996" s="3"/>
       <c r="D996" s="3"/>
@@ -28412,7 +28518,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
     </row>
-    <row r="997" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="997" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B997" s="2"/>
       <c r="C997" s="3"/>
       <c r="D997" s="3"/>
@@ -28440,7 +28546,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
     </row>
-    <row r="998" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="998" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B998" s="2"/>
       <c r="C998" s="3"/>
       <c r="D998" s="3"/>
@@ -28468,7 +28574,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="999" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B999" s="2"/>
       <c r="C999" s="3"/>
       <c r="D999" s="3"/>
@@ -28496,7 +28602,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
     </row>
-    <row r="1000" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="1000" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1000" s="2"/>
       <c r="C1000" s="3"/>
       <c r="D1000" s="3"/>
@@ -28524,7 +28630,7 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
-    <row r="1001" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="1001" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1001" s="2"/>
       <c r="C1001" s="3"/>
       <c r="D1001" s="3"/>
@@ -28552,6 +28658,34 @@
       <c r="Z1001" s="2"/>
       <c r="AA1001" s="2"/>
     </row>
+    <row r="1002" spans="2:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
